--- a/data/xlsx/var.xlsx
+++ b/data/xlsx/var.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Developer/python/terraformer/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C368256E-E0CD-9746-B5BC-38AFAC80E85B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D6E052-C132-F844-83A5-DE120F838492}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="460" windowWidth="25600" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6100" yWindow="4300" windowWidth="19500" windowHeight="10940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="uservariables" sheetId="63" r:id="rId1"/>
-    <sheet name="systemvariables" sheetId="64" r:id="rId2"/>
+    <sheet name="variables-user" sheetId="63" r:id="rId1"/>
+    <sheet name="variables-system" sheetId="64" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,21 +26,306 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="100">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>zone1</t>
+  </si>
+  <si>
+    <t>zone2</t>
+  </si>
+  <si>
+    <t>vpc-name</t>
+  </si>
+  <si>
+    <t>address-prefix-vpc</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t># Define sshkey to be used for compute instances</t>
+  </si>
+  <si>
+    <t># Define CIDR blocks to be used in each zone</t>
+  </si>
+  <si>
+    <t># Define zones</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t># Define webapptier compute instance profile &amp; quantity</t>
+  </si>
+  <si>
+    <t>profile-webappserver</t>
+  </si>
+  <si>
+    <t>webappserver-name</t>
+  </si>
+  <si>
+    <t>webappserver-count</t>
+  </si>
+  <si>
+    <t># Define database tier compute instance profile &amp; quantity</t>
+  </si>
+  <si>
+    <t>profile-dbserver</t>
+  </si>
+  <si>
+    <t>dbserver-name</t>
+  </si>
+  <si>
+    <t>dbserver-count</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Define Bastion compute instance profile </t>
+  </si>
+  <si>
+    <t>profile-bastionserver</t>
+  </si>
+  <si>
+    <t># Define Load Balancer for webapptier</t>
+  </si>
+  <si>
+    <t>webapptier-lb-connections</t>
+  </si>
+  <si>
+    <t>webapptier-lb-algorithm</t>
+  </si>
+  <si>
+    <t># Define VPNaaS instance for connectivity to onpremise</t>
+  </si>
+  <si>
+    <t>vpn-preshared-key</t>
+  </si>
+  <si>
+    <t># Define images</t>
+  </si>
+  <si>
+    <t>centos-7-amd64</t>
+  </si>
+  <si>
+    <t>debian-9-amd64</t>
+  </si>
+  <si>
+    <t>red-7-amd64</t>
+  </si>
+  <si>
+    <t>red-7-amd64-sap-applications</t>
+  </si>
+  <si>
+    <t>red-7-amd64-sap-hana</t>
+  </si>
+  <si>
+    <t>ubuntu-16-04-amd64</t>
+  </si>
+  <si>
+    <t>ubuntu-18-04-amd64</t>
+  </si>
+  <si>
+    <t>windows-2012-amd64</t>
+  </si>
+  <si>
+    <t>windows-2012-r2-amd64</t>
+  </si>
+  <si>
+    <t>windows-2016-amd64</t>
+  </si>
+  <si>
+    <t>resource-group</t>
+  </si>
+  <si>
+    <t>cis-resource-group</t>
+  </si>
+  <si>
+    <t>cis-instance-name</t>
+  </si>
+  <si>
+    <t>dns-name</t>
+  </si>
+  <si>
+    <t>ssh-public-key</t>
+  </si>
+  <si>
+    <t>onprem-vpn-ip-address</t>
+  </si>
+  <si>
+    <t>onprem-cidr</t>
+  </si>
+  <si>
+    <t>address-prefix1</t>
+  </si>
+  <si>
+    <t>address-prefix2</t>
+  </si>
+  <si>
+    <t>webapptier-subnet-zone1</t>
+  </si>
+  <si>
+    <t>dbtier-subnet-zone1</t>
+  </si>
+  <si>
+    <t>vpn-subnet-zone1</t>
+  </si>
+  <si>
+    <t>webapptier-subnet-zone2</t>
+  </si>
+  <si>
+    <t>dbtier-subnet-zone2</t>
+  </si>
+  <si>
+    <t>vpn-subnet-zone2</t>
+  </si>
+  <si>
+    <t>*file</t>
+  </si>
+  <si>
+    <t># Define vpc</t>
+  </si>
+  <si>
+    <t># Define subnets for zone1</t>
+  </si>
+  <si>
+    <t># Define subnets for zone2</t>
+  </si>
+  <si>
+    <t># define DNS</t>
+  </si>
+  <si>
+    <t># Define OS images to be used for compute instances</t>
+  </si>
+  <si>
+    <t>*value</t>
+  </si>
   <si>
     <t>*name</t>
   </si>
   <si>
-    <t>*value</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>webappvars.tf</t>
+  </si>
+  <si>
+    <t>systemvars.tf</t>
+  </si>
+  <si>
+    <t>"us-south-1"</t>
+  </si>
+  <si>
+    <t>"us-south-2"</t>
+  </si>
+  <si>
+    <t>"172.21.0.0/20"</t>
+  </si>
+  <si>
+    <t>"172.21.0.0/21"</t>
+  </si>
+  <si>
+    <t>"172.21.8.0/21"</t>
+  </si>
+  <si>
+    <t>"172.21.0.0/24"</t>
+  </si>
+  <si>
+    <t>"172.21.1.0/24"</t>
+  </si>
+  <si>
+    <t>"172.21.2.0/24"</t>
+  </si>
+  <si>
+    <t>"172.21.8.0/24"</t>
+  </si>
+  <si>
+    <t>"172.21.9.0/24"</t>
+  </si>
+  <si>
+    <t>"172.21.10.0/24"</t>
+  </si>
+  <si>
+    <t>"terraformer.blog"</t>
+  </si>
+  <si>
+    <t>"www."</t>
+  </si>
+  <si>
+    <t>"~/id_rsa.pub"</t>
+  </si>
+  <si>
+    <t>"cx2-2x4"</t>
+  </si>
+  <si>
+    <t>"webapp%02d"</t>
+  </si>
+  <si>
+    <t>"bx2-4x16"</t>
+  </si>
+  <si>
+    <t>"mysql%02d"</t>
+  </si>
+  <si>
+    <t>"1"</t>
+  </si>
+  <si>
+    <t>"bastion"</t>
+  </si>
+  <si>
+    <t>"2000"</t>
+  </si>
+  <si>
+    <t>"round_robin"</t>
+  </si>
+  <si>
+    <t>"192.168.248.0/24"</t>
+  </si>
+  <si>
+    <t>"VPNDemo"</t>
+  </si>
+  <si>
+    <t>"r006-54e9238a-ffdd-4f90-9742-7424eb2b9ff1"</t>
+  </si>
+  <si>
+    <t>"r006-8bb3e8aa-b789-4292-8679-3564b3a9366a"</t>
+  </si>
+  <si>
+    <t>"r006-5f9568ae-792e-47e1-a710-5538b2bdfca7"</t>
+  </si>
+  <si>
+    <t>"r006-ed3f775f-ad7e-4e37-ae62-7199b4988b00"</t>
+  </si>
+  <si>
+    <t>"r006-34ceeafe-fcc6-11e9-893a-57dde2f48a21"</t>
+  </si>
+  <si>
+    <t>"r006-60d279a0-b328-40eb-a379-595ca53bee18"</t>
+  </si>
+  <si>
+    <t>"r006-f5387730-7a4b-4f71-9a85-13b05b137953"</t>
+  </si>
+  <si>
+    <t>"r006-931515d2-fcc3-11e9-896d-3baa2797200f"</t>
+  </si>
+  <si>
+    <t>"r006-5e390f7b-0469-4ac1-b589-2fea307c1c5a"</t>
+  </si>
+  <si>
+    <t>"r006-6f153a5d-6a9a-496d-8063-5c39932f6ded"</t>
+  </si>
+  <si>
+    <t>bastionserver-name</t>
+  </si>
+  <si>
+    <t>"0.0.0.0"</t>
+  </si>
+  <si>
+    <t>"jww4webappvpc"</t>
+  </si>
+  <si>
+    <t>"jww4patternrg"</t>
+  </si>
+  <si>
+    <t>"jww4patterncisrg"</t>
   </si>
 </sst>
 </file>
@@ -94,10 +379,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -117,9 +399,6 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -157,32 +436,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9951979B-AFCD-0849-A32A-D7514269AD3C}" name="Table3210" displayName="Table3210" ref="A1:D3" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:D3" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B3">
-    <sortCondition ref="A1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9951979B-AFCD-0849-A32A-D7514269AD3C}" name="Table3210" displayName="Table3210" ref="A1:C61" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:C61" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C61">
+    <sortCondition ref="B1"/>
   </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{856FD1F5-2A8E-DD4C-BA0D-793950F3313E}" name="*name" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{EBB95179-83FB-0847-A500-762321CD3A4C}" name="*value" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{24D1E843-31EF-E44B-8924-947D6B80F2DA}" name="type" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{6790F87F-12C6-474E-A765-8070667B492E}" name="description" dataDxfId="6"/>
+  <tableColumns count="3">
+    <tableColumn id="5" xr3:uid="{3D275203-E26D-2A4A-A00D-ACFEB83A9694}" name="*file" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{856FD1F5-2A8E-DD4C-BA0D-793950F3313E}" name="*name" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{EBB95179-83FB-0847-A500-762321CD3A4C}" name="*value" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA6E446B-230B-5546-81E2-5A1E4F3CD207}" name="Table32102" displayName="Table32102" ref="A1:D3" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D3" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B3">
-    <sortCondition ref="A1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA6E446B-230B-5546-81E2-5A1E4F3CD207}" name="Table32102" displayName="Table32102" ref="A1:C15" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C15" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C15">
+    <sortCondition ref="B1"/>
   </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1128032F-07D1-784A-A92D-993B70ED8B37}" name="*name" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{271F1168-E5FB-A64C-8A84-EFFF0D0C864B}" name="*value" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{E4564CA8-39CE-9346-9542-E658D665C580}" name="type" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{D348E788-047E-0B45-AB20-D4146A376FB1}" name="description" dataDxfId="0"/>
+  <tableColumns count="3">
+    <tableColumn id="5" xr3:uid="{FC098E6B-56F6-3347-A96C-25D2DD78A80C}" name="*file" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{1128032F-07D1-784A-A92D-993B70ED8B37}" name="*name" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{271F1168-E5FB-A64C-8A84-EFFF0D0C864B}" name="*value" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -451,49 +728,550 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E512DA79-E398-A147-BE1C-513651119830}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C61" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -505,49 +1283,170 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D5780C-0FB3-8641-AF0A-2663D9C6928D}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/xlsx/var.xlsx
+++ b/data/xlsx/var.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Developer/python/terraformer/data/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D6E052-C132-F844-83A5-DE120F838492}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726665D8-1802-014D-97F0-7C848BBB8098}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="4300" windowWidth="19500" windowHeight="10940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6100" yWindow="4280" windowWidth="19500" windowHeight="10940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables-user" sheetId="63" r:id="rId1"/>
@@ -319,13 +319,13 @@
     <t>"0.0.0.0"</t>
   </si>
   <si>
-    <t>"jww4webappvpc"</t>
-  </si>
-  <si>
-    <t>"jww4patternrg"</t>
-  </si>
-  <si>
-    <t>"jww4patterncisrg"</t>
+    <t>"webappvpc"</t>
+  </si>
+  <si>
+    <t>"patternrg"</t>
+  </si>
+  <si>
+    <t>"patterncisrg"</t>
   </si>
 </sst>
 </file>
